--- a/Blog-Skeleton/Blog.Unit.Tests/DataDrivenTests/LogInData.xlsx
+++ b/Blog-Skeleton/Blog.Unit.Tests/DataDrivenTests/LogInData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,13 +123,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -408,7 +409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,90 +420,91 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
